--- a/data/trans_orig/P14A07-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A07-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{356D9C0C-189F-4DF2-A466-AC2240AD792F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{090F8A20-4D22-4701-A452-403D830AA26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4C2AEDD2-61D7-41AD-8100-26CE04CD1164}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{49B29D83-6050-4549-A44F-65BE83A30F13}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="159">
   <si>
     <t>Población que recibe medicación o terapia por estreñimiento crónico en 2012 (Tasa respuesta: 1,15%)</t>
   </si>
@@ -102,37 +102,37 @@
     <t>41,34%</t>
   </si>
   <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
   </si>
   <si>
     <t>48,15%</t>
   </si>
   <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
   </si>
   <si>
     <t>58,66%</t>
   </si>
   <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
   </si>
   <si>
     <t>51,85%</t>
   </si>
   <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -144,19 +144,19 @@
     <t>68,41%</t>
   </si>
   <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
   </si>
   <si>
     <t>69,86%</t>
   </si>
   <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -165,19 +165,19 @@
     <t>31,59%</t>
   </si>
   <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
   </si>
   <si>
     <t>30,14%</t>
   </si>
   <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -189,19 +189,19 @@
     <t>60,75%</t>
   </si>
   <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
   </si>
   <si>
     <t>56,19%</t>
   </si>
   <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
   </si>
   <si>
     <t>66,74%</t>
@@ -210,19 +210,19 @@
     <t>39,25%</t>
   </si>
   <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
   </si>
   <si>
     <t>43,81%</t>
   </si>
   <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -237,19 +237,19 @@
     <t>68,86%</t>
   </si>
   <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
   </si>
   <si>
     <t>70,2%</t>
   </si>
   <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
   </si>
   <si>
     <t>24,55%</t>
@@ -261,73 +261,73 @@
     <t>31,14%</t>
   </si>
   <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
   </si>
   <si>
     <t>29,8%</t>
   </si>
   <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
   </si>
   <si>
     <t>70,73%</t>
   </si>
   <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
   </si>
   <si>
     <t>61,16%</t>
   </si>
   <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
   </si>
   <si>
     <t>62,38%</t>
   </si>
   <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
   </si>
   <si>
     <t>29,27%</t>
   </si>
   <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
   </si>
   <si>
     <t>38,84%</t>
   </si>
   <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
   </si>
   <si>
     <t>37,62%</t>
   </si>
   <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -348,13 +348,13 @@
     <t>91,28%</t>
   </si>
   <si>
-    <t>62,17%</t>
+    <t>52,96%</t>
   </si>
   <si>
     <t>94,36%</t>
   </si>
   <si>
-    <t>75,71%</t>
+    <t>75,48%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -363,49 +363,49 @@
     <t>8,72%</t>
   </si>
   <si>
-    <t>37,83%</t>
+    <t>47,04%</t>
   </si>
   <si>
     <t>5,64%</t>
   </si>
   <si>
-    <t>24,29%</t>
+    <t>24,52%</t>
   </si>
   <si>
     <t>69,48%</t>
   </si>
   <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
   </si>
   <si>
     <t>65,65%</t>
   </si>
   <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
   </si>
   <si>
     <t>30,52%</t>
   </si>
   <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
   </si>
   <si>
     <t>34,35%</t>
   </si>
   <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
   </si>
   <si>
     <t>68,89%</t>
@@ -414,7 +414,7 @@
     <t>91,13%</t>
   </si>
   <si>
-    <t>59,71%</t>
+    <t>58,24%</t>
   </si>
   <si>
     <t>31,11%</t>
@@ -423,7 +423,7 @@
     <t>8,87%</t>
   </si>
   <si>
-    <t>40,29%</t>
+    <t>41,76%</t>
   </si>
   <si>
     <t>53,58%</t>
@@ -435,13 +435,19 @@
     <t>64,86%</t>
   </si>
   <si>
-    <t>84,24%</t>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
   </si>
   <si>
     <t>63,02%</t>
   </si>
   <si>
-    <t>80,76%</t>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
   </si>
   <si>
     <t>46,42%</t>
@@ -453,61 +459,61 @@
     <t>35,14%</t>
   </si>
   <si>
-    <t>15,76%</t>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
   </si>
   <si>
     <t>36,98%</t>
   </si>
   <si>
-    <t>19,24%</t>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
   </si>
   <si>
     <t>76,16%</t>
   </si>
   <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
   </si>
   <si>
     <t>76,15%</t>
   </si>
   <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
   </si>
   <si>
     <t>23,84%</t>
   </si>
   <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
   </si>
   <si>
     <t>23,85%</t>
   </si>
   <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
   </si>
 </sst>
 </file>
@@ -919,7 +925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E60453A-C5BA-4856-AC3C-AB44DACE0419}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C282440-0A4A-4824-9F7C-DA5F04B21AED}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1976,7 +1982,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F338EAD3-754E-4E0D-8776-78C41BA6EC16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0308DAC1-F61A-4167-8617-5C8E03DB2A18}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2738,10 +2744,10 @@
         <v>131</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -2750,13 +2756,13 @@
         <v>18464</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2771,13 +2777,13 @@
         <v>2218</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -2786,13 +2792,13 @@
         <v>8616</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -2801,13 +2807,13 @@
         <v>10834</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>26</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2875,13 +2881,13 @@
         <v>12613</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H19" s="7">
         <v>39</v>
@@ -2890,13 +2896,13 @@
         <v>45026</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M19" s="7">
         <v>52</v>
@@ -2905,13 +2911,13 @@
         <v>57639</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2926,13 +2932,13 @@
         <v>3949</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -2941,13 +2947,13 @@
         <v>14105</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M20" s="7">
         <v>16</v>
@@ -2956,13 +2962,13 @@
         <v>18054</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14A07-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A07-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{090F8A20-4D22-4701-A452-403D830AA26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B40EA26-76BA-4968-B619-F4F90CDD9FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{49B29D83-6050-4549-A44F-65BE83A30F13}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B394CBF7-DDA6-44AD-B731-0C892380D3EB}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="161">
   <si>
     <t>Población que recibe medicación o terapia por estreñimiento crónico en 2012 (Tasa respuesta: 1,15%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -96,46 +96,46 @@
     <t>56,93%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>41,34%</t>
   </si>
   <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
   </si>
   <si>
     <t>48,15%</t>
   </si>
   <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
   </si>
   <si>
     <t>58,66%</t>
   </si>
   <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
   </si>
   <si>
     <t>51,85%</t>
   </si>
   <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -144,19 +144,19 @@
     <t>68,41%</t>
   </si>
   <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
   </si>
   <si>
     <t>69,86%</t>
   </si>
   <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -165,22 +165,22 @@
     <t>31,59%</t>
   </si>
   <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
   </si>
   <si>
     <t>30,14%</t>
   </si>
   <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>33,26%</t>
@@ -189,19 +189,19 @@
     <t>60,75%</t>
   </si>
   <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
   </si>
   <si>
     <t>56,19%</t>
   </si>
   <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
   </si>
   <si>
     <t>66,74%</t>
@@ -210,19 +210,19 @@
     <t>39,25%</t>
   </si>
   <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
   </si>
   <si>
     <t>43,81%</t>
   </si>
   <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -237,19 +237,19 @@
     <t>68,86%</t>
   </si>
   <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
   </si>
   <si>
     <t>70,2%</t>
   </si>
   <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
   </si>
   <si>
     <t>24,55%</t>
@@ -261,79 +261,79 @@
     <t>31,14%</t>
   </si>
   <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
   </si>
   <si>
     <t>29,8%</t>
   </si>
   <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>52,27%</t>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
   </si>
   <si>
     <t>70,73%</t>
   </si>
   <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
   </si>
   <si>
     <t>61,16%</t>
   </si>
   <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
   </si>
   <si>
     <t>62,38%</t>
   </si>
   <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
   </si>
   <si>
     <t>29,27%</t>
   </si>
   <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
   </si>
   <si>
     <t>38,84%</t>
   </si>
   <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
   </si>
   <si>
     <t>37,62%</t>
   </si>
   <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por estreñimiento crónico en 2015 (Tasa respuesta: 1,04%)</t>
+    <t>Población que recibe medicación o terapia por estreñimiento crónico en 2016 (Tasa respuesta: 1,04%)</t>
   </si>
   <si>
     <t>63,75%</t>
@@ -348,13 +348,13 @@
     <t>91,28%</t>
   </si>
   <si>
-    <t>52,96%</t>
+    <t>53,93%</t>
   </si>
   <si>
     <t>94,36%</t>
   </si>
   <si>
-    <t>75,48%</t>
+    <t>69,8%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -363,49 +363,49 @@
     <t>8,72%</t>
   </si>
   <si>
-    <t>47,04%</t>
+    <t>46,07%</t>
   </si>
   <si>
     <t>5,64%</t>
   </si>
   <si>
-    <t>24,52%</t>
+    <t>30,2%</t>
   </si>
   <si>
     <t>69,48%</t>
   </si>
   <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
   </si>
   <si>
     <t>65,65%</t>
   </si>
   <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
   </si>
   <si>
     <t>30,52%</t>
   </si>
   <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
   </si>
   <si>
     <t>34,35%</t>
   </si>
   <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
   </si>
   <si>
     <t>68,89%</t>
@@ -414,7 +414,7 @@
     <t>91,13%</t>
   </si>
   <si>
-    <t>58,24%</t>
+    <t>59,02%</t>
   </si>
   <si>
     <t>31,11%</t>
@@ -423,97 +423,103 @@
     <t>8,87%</t>
   </si>
   <si>
-    <t>41,76%</t>
+    <t>40,98%</t>
   </si>
   <si>
     <t>53,58%</t>
   </si>
   <si>
-    <t>14,67%</t>
+    <t>14,05%</t>
   </si>
   <si>
     <t>64,86%</t>
   </si>
   <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
   </si>
   <si>
     <t>63,02%</t>
   </si>
   <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
   </si>
   <si>
     <t>46,42%</t>
   </si>
   <si>
-    <t>85,33%</t>
+    <t>85,95%</t>
   </si>
   <si>
     <t>35,14%</t>
   </si>
   <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
   </si>
   <si>
     <t>36,98%</t>
   </si>
   <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
   </si>
   <si>
     <t>76,16%</t>
   </si>
   <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
   </si>
   <si>
     <t>76,15%</t>
   </si>
   <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
   </si>
   <si>
     <t>23,84%</t>
   </si>
   <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
   </si>
   <si>
     <t>23,85%</t>
   </si>
   <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
   </si>
 </sst>
 </file>
@@ -925,7 +931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C282440-0A4A-4824-9F7C-DA5F04B21AED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97453B6-ABE7-4FF5-BC6F-3DEA80CA8028}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1982,7 +1988,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0308DAC1-F61A-4167-8617-5C8E03DB2A18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D439C58A-3D21-4350-83AD-D97AB02D9763}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2914,10 +2920,10 @@
         <v>148</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2932,13 +2938,13 @@
         <v>3949</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -2947,13 +2953,13 @@
         <v>14105</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M20" s="7">
         <v>16</v>
@@ -2962,13 +2968,13 @@
         <v>18054</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
